--- a/app/data/clean_project_data.xlsx
+++ b/app/data/clean_project_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC85"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tonia Christman</t>
+          <t>Patricia Danford</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Harold Ross</t>
+          <t>Thelma Vanderlip</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Esperanza Dorado</t>
+          <t>Agnes Jones</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -946,7 +946,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kimberly Laurent</t>
+          <t>David Myles</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tonya Young</t>
+          <t>Bernice Dotson</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Phillip Brown</t>
+          <t>Mary Hadlock</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Albert Janczewski</t>
+          <t>Mary Gordon</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Virginia Hunter</t>
+          <t>Kathleen Wells</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Margie Ramirez</t>
+          <t>Steve Scoggins</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Virginia Shirley</t>
+          <t>Felix Rojas</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Darlene Challis</t>
+          <t>Michael Matthews</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Le Hawkins</t>
+          <t>Robert Jones</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Jerry Everette</t>
+          <t>William Silva</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Joann Hannah</t>
+          <t>Anna Sammarco</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Marcus Richman</t>
+          <t>Joseph Ferrell</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>James Kresge</t>
+          <t>Lawrence Hall</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Leona Gonzalez</t>
+          <t>Barb Bennett</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gilbert Lesh</t>
+          <t>Johnny Gharing</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tracy Sorenson</t>
+          <t>Roger Casey</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Michelle Bodine</t>
+          <t>John Felder</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rodney Byer</t>
+          <t>Nathan Warnick</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mose Holtmeier</t>
+          <t>Sarah Putman</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Leon Garman</t>
+          <t>Ian Morgan</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kathleen Robinson</t>
+          <t>Lindy Wilson</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Barbara Skelton</t>
+          <t>Monty Sewell</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Matt Cantwell</t>
+          <t>Lawrence Livingston</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bridget Faltus</t>
+          <t>Doris Balke</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Irene Nguyen</t>
+          <t>Fred Proffer</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fred Moralis</t>
+          <t>Emma Riddle</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Irish Brewer</t>
+          <t>Misty Ritzman</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Robert Amador</t>
+          <t>Ione Busbee</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gregory Flynn</t>
+          <t>John Ford</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Laura Martin</t>
+          <t>Arlene Wade</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Brooke Marc</t>
+          <t>John Harris</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cornelius Brennan</t>
+          <t>Lloyd Hernandez</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Vincenzo Rounds</t>
+          <t>Dorothy Steele</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jimmy Miller</t>
+          <t>Caroline Tan</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Albert Arbizo</t>
+          <t>Linda Woolever</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Erma Brown</t>
+          <t>Herbert Madison</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bruce Littlejohn</t>
+          <t>Mary Reitmeier</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Daniel Calvin</t>
+          <t>Norman Franklin</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Dale Woodson</t>
+          <t>Deborah Wilkerson</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Burt Denton</t>
+          <t>Bonnie Dabney</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Jay Milliren</t>
+          <t>Robert Kaufman</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nathan Shelton</t>
+          <t>Scott Obrien</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Angela Talton</t>
+          <t>John Harting</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Desiree Smith</t>
+          <t>William Garcia</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Michael Covington</t>
+          <t>Dorothy Coleman</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Elizabeth Sims</t>
+          <t>Patricia Anderson</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rebecca Woodworth</t>
+          <t>Alexander Clark</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Kristin Jones</t>
+          <t>Noemi Powers</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nancy Hebert</t>
+          <t>Julie Chamness</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Robbie Aldrete</t>
+          <t>Shellie Jordan</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Doris Thurber</t>
+          <t>Christopher Vicic</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Joseph Serra</t>
+          <t>Cecil Quesnell</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bobbi Tanner</t>
+          <t>Irma Kalar</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Dennis Murray</t>
+          <t>Cynthia Pennington</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Jennifer Hall</t>
+          <t>Thomas Davis</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Richard Meyer</t>
+          <t>Winston Salas</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bonnie Moore</t>
+          <t>Nellie Smith</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mary Glueck</t>
+          <t>Debbie Johnson</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Leah Santiago</t>
+          <t>Andrew Haycraft</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cindy Martens</t>
+          <t>Blair Cofield</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Juan Young</t>
+          <t>Rodney Taylor</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Logan Scott</t>
+          <t>Carmen English</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -8212,7 +8212,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Alfredo Myles</t>
+          <t>Jon Holt</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Maureen Santos</t>
+          <t>Charles Dorsey</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -8450,7 +8450,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Brenda Bolton</t>
+          <t>Lisa Castro</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Tammy Lenz</t>
+          <t>Walter Rossi</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cynthia Velez</t>
+          <t>James White</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lauren Harris</t>
+          <t>Sherman Powell</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Henry Forte</t>
+          <t>Karl Chilton</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>John Johnston</t>
+          <t>Doris Wilson</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -9164,7 +9164,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sandra Munn</t>
+          <t>Debbie Loth</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mark Lopez</t>
+          <t>Benjamin Wagner</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -9398,7 +9398,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Anita White</t>
+          <t>Katelyn Kimes</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Dorothy Stancill</t>
+          <t>Pamela Murphy</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Rosa Griffin</t>
+          <t>Arlene Duarte</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -9745,7 +9745,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Charles Quinlan</t>
+          <t>David Macdonald</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Daniel Khan</t>
+          <t>Mary Rhodes</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Curtis Wallerich</t>
+          <t>Rebecca Sanchez</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Linda Logan</t>
+          <t>Mabel Pennington</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>George Pompey</t>
+          <t>Cecilia Prescott</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -10334,7 +10334,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Heather Roberts</t>
+          <t>Blanca Searing</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -10439,6 +10439,9104 @@
         </is>
       </c>
       <c r="AC85" t="inlineStr">
+        <is>
+          <t>Mugera</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44825.4006043287</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44825.40812542824</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Bobbie Simon</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bayavuge Joel </t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mushimiyimana Maliya </t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>786404477</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>-2.3326026</v>
+      </c>
+      <c r="M86" t="n">
+        <v>29.1385882</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1544.90151688966</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V86" t="n">
+        <v>9.715</v>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Gatare</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Ruhuha</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Kindama</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44825.40556334491</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44825.40918587963</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Nora Bryan</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bizimana Emmanuel </t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mukashyaka Liberatha </t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>782414527</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>-2.3349042</v>
+      </c>
+      <c r="M87" t="n">
+        <v>29.1393176</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1495.61714964704</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V87" t="n">
+        <v>81</v>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Woods are not very dry</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Bushonyi</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Ngenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44825.33609666667</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44825.35372211805</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Joy Mata</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Dukundumwami Eric</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Mukashema Verena</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>785665539</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>-2.3343978</v>
+      </c>
+      <c r="M88" t="n">
+        <v>29.1402568</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1489.30424296665</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V88" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Yesterday I left 20.38kg today  visit remain 13.40kg that means they used 6.98kg the I add 3.66kg today all woods remain are 17.06kg</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Gashora</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44825.45859927083</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44825.46260467593</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Lisa Tucker</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Dusengimana Aloys</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Niyitegeka Rachel</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>782169524</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>-2.333099</v>
+      </c>
+      <c r="M89" t="n">
+        <v>29.1415614</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1532.91370138712</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V89" t="n">
+        <v>130.14</v>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Has enough wood for using</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Bushenyi</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44825.33820149305</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44825.34363064815</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Matthew Harris</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Habyarimana J.Damscene</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Musabyimana Alphonsine</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>782350104</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>-2.3291958</v>
+      </c>
+      <c r="M90" t="n">
+        <v>29.1425167</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1517.88924454396</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V90" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>No additional woods collected they are still using the woods from day 1</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Bishenyi</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Murama</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44825.35004390046</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44825.36014475695</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Mickey Moyer</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Habyarimana Silas</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Mukarugwiza Saverine</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>782938186</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>-2.3293648</v>
+      </c>
+      <c r="M91" t="n">
+        <v>29.139069</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1549.91553416674</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V91" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>For the using pile I added the collected pile</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Bishenyi</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>Murama</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44825.43759684027</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44825.4497334375</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Arline Wright</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Hanyurineza Joseph</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Nyiranzabandora Marie</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>782304066</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>-2.3276875</v>
+      </c>
+      <c r="M92" t="n">
+        <v>29.0412209</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1661.9</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Yesterday they had 22.955kg today visit has 8.250kg that means they used 14.705kg then that remain i add 7.835kg, the total remain to be used till tomorrow is 16.085kg</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Gashora</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44825.36403424769</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44825.37432357639</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Roxanne Ward</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Harelimana Jason</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Mukeshimana Betty</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>790969575</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>-2.3246263</v>
+      </c>
+      <c r="M93" t="n">
+        <v>29.041296</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1641.3</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V93" t="n">
+        <v>45.285</v>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Has enough woods for using today but we will collect new woods in next days</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Bushenyi</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44825.42451614583</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44825.53602746528</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Constance Darden</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Hazaturumuhanga Sylver</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Mukankubito Josephine</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>783826185</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>-2.3260707</v>
+      </c>
+      <c r="M94" t="n">
+        <v>29.0397804</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1649</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V94" t="n">
+        <v>7</v>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Gako</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>Morning weather</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44825.42874215278</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44825.4337159375</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Cecilia Patrick</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kamanzi Adrienne </t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niyigena Rose </t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>789024776</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>-2.3280267</v>
+      </c>
+      <c r="M95" t="n">
+        <v>29.0391752</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1674.9</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V95" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Gatare</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Ruhuha</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Kindama</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44825.36402056713</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44825.37886318287</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Freddie Beltran</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karemera Jean De Dieu </t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mukatorero Esther </t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>782574564</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>-2.3274415</v>
+      </c>
+      <c r="M96" t="n">
+        <v>29.0402338</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1682.3</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V96" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Gatare</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Ruhuha</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>Kindama</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44825.47757712963</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44825.48993655093</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Kate Heath</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Kubwimana Aloys</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Uwiduhaye Mathilda</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>781908106</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>-2.3282432</v>
+      </c>
+      <c r="M97" t="n">
+        <v>29.0365581</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1631.6</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V97" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Yesterday they had 13.845kg today visit remain 11.08kg that means 2.765kg, They have enough woods to use today till tomorrow</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>Gashora</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44825.41845577546</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44825.42160780093</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Carrie Dalton</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magambo Ezekiel </t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mutimukeye Odette </t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>784917476</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>-2.3977641</v>
+      </c>
+      <c r="M98" t="n">
+        <v>29.0661204</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1623</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V98" t="n">
+        <v>40</v>
+      </c>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Bushonyi</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>Ngenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44825.42893040509</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44825.43521663194</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Larry Hernandez</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magerageza Innocent </t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Nzabamwita Violet</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>789727507</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>-2.397743</v>
+      </c>
+      <c r="M99" t="n">
+        <v>29.0684651</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1682</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V99" t="n">
+        <v>10</v>
+      </c>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>Bushonyi</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>Ngenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44825.3703856713</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44825.37637432871</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Addie Wriedt</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Maniraguha Alphonsine</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Maniraguha Alphonsine</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>790820898</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>-2.3955922</v>
+      </c>
+      <c r="M100" t="n">
+        <v>29.0709989</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1712</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V100" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>For the using pile I added the collected pile</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>Bishenyi</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>Murama</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44822.55332952546</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44825.66847133102</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Terry Rodriguez</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mukakaruta Christine </t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Mukakaruta Christine</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>789215868</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>-2.3979153</v>
+      </c>
+      <c r="M101" t="n">
+        <v>29.0712787</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1735</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V101" t="n">
+        <v>49.94</v>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, I did not add new woods  today </t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>Akajuri</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>Hot balanced</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>Rutonde</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44825.41376410879</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44825.4244322801</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Gayle Vogt</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Mukarukundo</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mukarukundo </t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>789787096</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>-2.4067796</v>
+      </c>
+      <c r="M102" t="n">
+        <v>29.0671224</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1719</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V102" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>Gako</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>Morning weather</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44825.51361590278</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44825.51851358797</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Vernon Vigor</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Munyaneza Celestin</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Mushimiyimana Suzana</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>789066381</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>-2.4087353</v>
+      </c>
+      <c r="M103" t="n">
+        <v>29.0646923</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1699</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V103" t="n">
+        <v>73.355</v>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Woods are enough for next 2 days</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>Bushenyi</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC103" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44825.39979822917</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44825.66787380787</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Mark Gamble</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Munyaneza Nasoni </t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Mukabahizi Marcelline</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>781354874</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>-2.5027309</v>
+      </c>
+      <c r="M104" t="n">
+        <v>29.0397602</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1601.25439453125</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V104" t="n">
+        <v>20.885</v>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, I did not add new woods  today </t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>Akajuri</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>Rutonde</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44825.38532909723</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44825.40728721065</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sarah Cook</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Museruka Athanasi</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Umutoni Clarisse</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>789596781</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>-2.507516</v>
+      </c>
+      <c r="M105" t="n">
+        <v>29.0398699</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1575.580078125</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V105" t="n">
+        <v>4.645</v>
+      </c>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>Gashora</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44825.48965541667</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44825.66935087963</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Charles Cosselman</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mushana Innocent </t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Mukankaka Immacule</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>786730888</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>-2.5069978</v>
+      </c>
+      <c r="M106" t="n">
+        <v>29.0360267</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1535.12719726563</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V106" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>Yes, All kg I left are 59.98</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>Akajuri</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>Hotter</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC106" t="inlineStr">
+        <is>
+          <t>Rutonde</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44825.46948074074</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44825.66651045139</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Maureen Rake</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mutwarasibo Jean Bosco </t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Ayinkamiye Claudine</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>780898843</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>-2.5033558</v>
+      </c>
+      <c r="M107" t="n">
+        <v>29.0389618</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1603.6279296875</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V107" t="n">
+        <v>30.535</v>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I did not add new woods  today </t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>Akajuri</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>Hotter</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>Rutonde</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44825.37966284722</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>44825.38681871528</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Betty Cheek</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Ndaheranywa Reveriane</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mukagasana Beatrice </t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>784101889</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>-2.499232</v>
+      </c>
+      <c r="M108" t="n">
+        <v>29.0388849</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1619.9033203125</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V108" t="n">
+        <v>5.915</v>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>I add the collected pile on using pile</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>Bishenyi</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC108" t="inlineStr">
+        <is>
+          <t>Murama</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44825.42439996528</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44825.66977174769</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Danial Muller</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ndeshyo Adiyeli </t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Mukeshimana Dative</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>789955593</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>-2.3343172</v>
+      </c>
+      <c r="M109" t="n">
+        <v>29.0443105</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1480.4</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V109" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, I did not add new woods  today </t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>Akajuri</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC109" t="inlineStr">
+        <is>
+          <t>Rutonde</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44825.35942069445</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>44825.37246454861</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Kathleen Porter</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Ndihokubwayo Naphtalie</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Nishimwe Fillette</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>785404302</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>-2.3333349</v>
+      </c>
+      <c r="M110" t="n">
+        <v>29.0423492</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1530.8</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V110" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>Gashora</t>
+        </is>
+      </c>
+      <c r="AC110" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44825.3491474537</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44825.35766041667</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Lelia Williams</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Nikombabona Claudine</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nikombabona </t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>782310575</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>-2.3345608</v>
+      </c>
+      <c r="M111" t="n">
+        <v>29.0388803</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1572.2</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V111" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>Gako</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>Morning weather</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC111" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44825.391173125</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44825.40372888889</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Danielle Numbers</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Niyomukiza Razal</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Uwiragiye Marine</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>782956724</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>-2.3354907</v>
+      </c>
+      <c r="M112" t="n">
+        <v>29.0413389</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1503.9</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V112" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>All woods collected were added on using woods pile</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>Bishenyi</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC112" t="inlineStr">
+        <is>
+          <t>Murama</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44825.49173085648</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44825.49749606482</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Joshua Fleming</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Nkuranga Frecerick</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Mukarubibi Pauline</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>783805453</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>-2.3353291</v>
+      </c>
+      <c r="M113" t="n">
+        <v>29.0425401</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1534.2</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V113" t="n">
+        <v>62.04</v>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>Woods for using tomorrow are enough</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>Bushenyi</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44825.45815981481</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44825.46351915509</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Pam Romansky</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nkurikiyimana Emmanuel </t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kampundu Violet </t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>788236351</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>-2.3356867</v>
+      </c>
+      <c r="M114" t="n">
+        <v>29.0445167</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V114" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>Bushenyi</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC114" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44825.4138953125</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44825.42531627315</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Jesse Dawkins</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nsabimana Epimaque </t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nizigiyimana Jeanne </t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>782293662</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>-2.4986267</v>
+      </c>
+      <c r="M115" t="n">
+        <v>29.0394048</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1630.93488197409</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V115" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>Gatare</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>Ruhuha</t>
+        </is>
+      </c>
+      <c r="AC115" t="inlineStr">
+        <is>
+          <t>Kindama</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44825.38062033565</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44825.38981248843</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Deborah Hinson</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nsengimana </t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingabire Rose </t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>789727507</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>-2.3719229</v>
+      </c>
+      <c r="M116" t="n">
+        <v>29.0357857</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1606.6123046875</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V116" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>According to the pile I measured yesterday woods reduced</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>Bushonyi</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA116" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC116" t="inlineStr">
+        <is>
+          <t>Ngenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44825.41115864583</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44825.41415947917</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Gretchen Cole</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Ntihemuka Silas</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Mushiyimana Marie</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>780178929</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>-2.3680329</v>
+      </c>
+      <c r="M117" t="n">
+        <v>29.0343978</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1544.54406738281</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V117" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>Bishenyi</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC117" t="inlineStr">
+        <is>
+          <t>Murama</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44825.41598153935</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44825.42387179398</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Jeff Jones</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Ntirenganya Philemon</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Mukahigiro Vestine</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>781487254</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>-2.3744143</v>
+      </c>
+      <c r="M118" t="n">
+        <v>29.0336102</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1590.40209960938</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V118" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>They are 2 persons in house but yesterday they were visited by 5 persons another thing the remaining woods were enough that can be used today without add new collectd pile.</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>Gashora</t>
+        </is>
+      </c>
+      <c r="AC118" t="inlineStr">
+        <is>
+          <t>Kagomasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44825.39999539352</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>44825.40620197917</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Michael Long</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Nyirahategekimana Isabelle</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Nyirahategekimana Isabelle</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>784100959</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>-2.3745996</v>
+      </c>
+      <c r="M119" t="n">
+        <v>29.0358031</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1632.66015625</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V119" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>Woods are enough</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>Bushenyi</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA119" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC119" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44825.38017525463</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>44825.38672847222</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Dawn Ellis</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Nyirandorimana Esperance</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nyirandorimana Esperance </t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>785216855</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>-2.3805537</v>
+      </c>
+      <c r="M120" t="n">
+        <v>29.0356514</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1659.0986328125</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V120" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>Because they have traditional stove , they use more woods</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>Gako</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>Morning weather</t>
+        </is>
+      </c>
+      <c r="AA120" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC120" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44825.36592040509</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44825.37009167824</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>William Gibson</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Nyiranjangwe Tatiana</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nyandwi Ernest </t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>780923300</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>-2.3834331</v>
+      </c>
+      <c r="M121" t="n">
+        <v>29.0351701</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1683.47314453125</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V121" t="n">
+        <v>37</v>
+      </c>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>Bushonyi</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA121" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC121" t="inlineStr">
+        <is>
+          <t>Ngenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44825.37338802083</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>44825.67052788194</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Susan Jude</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Nzayisenga Gerard</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Niyonsaba Anesiya</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>789439806</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>-2.3036964</v>
+      </c>
+      <c r="M122" t="n">
+        <v>29.2539054</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1852.7</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V122" t="n">
+        <v>64.625</v>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, I did not add new woods  today </t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>Akajuri</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>Hot balanced</t>
+        </is>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>Ngeruka</t>
+        </is>
+      </c>
+      <c r="AC122" t="inlineStr">
+        <is>
+          <t>Rutonde</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44825.43900398148</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>44825.44516210648</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Kevin Renteria</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruharamanzi Ezechias </t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mushimiyimana Esther </t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>780022349</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>-2.3025381</v>
+      </c>
+      <c r="M123" t="n">
+        <v>29.2574119</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1922.8</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V123" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>Gatare</t>
+        </is>
+      </c>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA123" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB123" t="inlineStr">
+        <is>
+          <t>Ruhuha</t>
+        </is>
+      </c>
+      <c r="AC123" t="inlineStr">
+        <is>
+          <t>Kindama</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44825.38678241898</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>44825.39548315972</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cesar Olson</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rwambuka Felicien </t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mukeshimana Josephine </t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>781976373</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>-2.3046077</v>
+      </c>
+      <c r="M124" t="n">
+        <v>29.2570175</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1930.1</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V124" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>We add using pile 2.800</t>
+        </is>
+      </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>Gatare</t>
+        </is>
+      </c>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA124" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB124" t="inlineStr">
+        <is>
+          <t>Ruhuha</t>
+        </is>
+      </c>
+      <c r="AC124" t="inlineStr">
+        <is>
+          <t>Kindama</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44825.4364714699</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>44825.44139981482</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Angela Bock</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Sibobugingo Celestin</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Mukeshimana Godelena</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>781336777</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>-2.3066817</v>
+      </c>
+      <c r="M125" t="n">
+        <v>29.2572217</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1962.7</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V125" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>Using pile is enough</t>
+        </is>
+      </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>Bushenyi</t>
+        </is>
+      </c>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA125" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB125" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC125" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44825.36569954861</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>44825.37081300926</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Jennifer Meece</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Tuyisenge Ester</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tuyisenge Ester </t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>785679177</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>-2.3077829</v>
+      </c>
+      <c r="M126" t="n">
+        <v>29.2607631</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2060.6</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V126" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>Gako</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>Morning weather</t>
+        </is>
+      </c>
+      <c r="AA126" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB126" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC126" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44825.39100888889</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>44825.40358425926</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Benita Vitullo</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Uwimana Francois</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masengesho Dancille </t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>783064319</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>-2.3108235</v>
+      </c>
+      <c r="M127" t="n">
+        <v>29.2582766</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2002.3</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V127" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>Gako</t>
+        </is>
+      </c>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>Morning weather</t>
+        </is>
+      </c>
+      <c r="AA127" t="inlineStr">
+        <is>
+          <t>Bugesera</t>
+        </is>
+      </c>
+      <c r="AB127" t="inlineStr">
+        <is>
+          <t>Nyarugenge</t>
+        </is>
+      </c>
+      <c r="AC127" t="inlineStr">
+        <is>
+          <t>Rugando</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44824.85610857639</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>44825.41061744213</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Nancy Wright</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Bakundukize Jean</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Nyiraneza Rahabu</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>780069407</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>-2.3147631</v>
+      </c>
+      <c r="M128" t="n">
+        <v>29.9924443</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1469.80004882813</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V128" t="n">
+        <v>46.595</v>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>Has collected enough woods to be used for 4 days</t>
+        </is>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>Gakomeye</t>
+        </is>
+      </c>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AA128" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB128" t="inlineStr">
+        <is>
+          <t>Ruharambuga</t>
+        </is>
+      </c>
+      <c r="AC128" t="inlineStr">
+        <is>
+          <t>Wimana</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44825.51822599537</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>44825.582839375</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Carlos Akins</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Bayisenge Noel</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Mukeshimana Olive</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>783712829</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>-2.3155056</v>
+      </c>
+      <c r="M129" t="n">
+        <v>29.9913756</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1477.30004882813</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>Charcoal</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>Bizenga</t>
+        </is>
+      </c>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA129" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB129" t="inlineStr">
+        <is>
+          <t>Kanjongo</t>
+        </is>
+      </c>
+      <c r="AC129" t="inlineStr">
+        <is>
+          <t>Kibogora</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44824.88332875</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>44825.48131</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Roy Nadeau</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Bigirimana Alex</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Bigirimana Alex</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>780522177</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>-2.316609</v>
+      </c>
+      <c r="M130" t="n">
+        <v>29.9891788</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1462.19995117188</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V130" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>She prepared woods for using in 4 days only</t>
+        </is>
+      </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>Gakomeye</t>
+        </is>
+      </c>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AA130" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB130" t="inlineStr">
+        <is>
+          <t>Ruharambuga</t>
+        </is>
+      </c>
+      <c r="AC130" t="inlineStr">
+        <is>
+          <t>Wimana</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44825.48425799768</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>44825.5015880787</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Patricia Zaleski</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Bimenyimana Felecien</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Bimenyimana Felicien</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>785278138</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>-2.3127834</v>
+      </c>
+      <c r="M131" t="n">
+        <v>29.9941619</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1488</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V131" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>Bizenga</t>
+        </is>
+      </c>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA131" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB131" t="inlineStr">
+        <is>
+          <t>Kanjongo</t>
+        </is>
+      </c>
+      <c r="AC131" t="inlineStr">
+        <is>
+          <t>Kibogora</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44825.42095314815</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>44825.70087453704</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Robert Anderson</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Birarurwa Josue</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Nyiranshuti Marcianna</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>782391117</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>-2.3131502</v>
+      </c>
+      <c r="M132" t="n">
+        <v>29.9973158</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1454.90002441406</v>
+      </c>
+      <c r="O132" t="n">
+        <v>1</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V132" t="n">
+        <v>24.613</v>
+      </c>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>Cyankuba</t>
+        </is>
+      </c>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA132" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB132" t="inlineStr">
+        <is>
+          <t>Karambi</t>
+        </is>
+      </c>
+      <c r="AC132" t="inlineStr">
+        <is>
+          <t>Kagarama</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44825.40807650463</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>44825.69973490741</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Linda Scarbrough</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Bizimana Pascal</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Nyirandayambaje Beatrice</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>783819366</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>-2.3120397</v>
+      </c>
+      <c r="M133" t="n">
+        <v>29.9954538</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1486.59997558594</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V133" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>We cooked 1 time</t>
+        </is>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>Cyankuba</t>
+        </is>
+      </c>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA133" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB133" t="inlineStr">
+        <is>
+          <t>Karambi</t>
+        </is>
+      </c>
+      <c r="AC133" t="inlineStr">
+        <is>
+          <t>Kagarama</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44825.49467045139</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>44825.61012134259</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Santos Bruley</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dushimimana Enock </t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Irabizi Janvier</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>788893150</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>-2.3068234</v>
+      </c>
+      <c r="M134" t="n">
+        <v>30.063137</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1452</v>
+      </c>
+      <c r="O134" t="n">
+        <v>1</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V134" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>Buhembe</t>
+        </is>
+      </c>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>The weather is balanced</t>
+        </is>
+      </c>
+      <c r="AA134" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>Bushekeri</t>
+        </is>
+      </c>
+      <c r="AC134" t="inlineStr">
+        <is>
+          <t>Ngoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44825.47739804398</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>44825.60967403936</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Kathy Richardson</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Gatera Fidele</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Niyonsenga Ismael</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>785775435</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>-2.3050333</v>
+      </c>
+      <c r="M135" t="n">
+        <v>30.0639518</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1478</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V135" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>Buhembe</t>
+        </is>
+      </c>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>The weather is balanced</t>
+        </is>
+      </c>
+      <c r="AA135" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB135" t="inlineStr">
+        <is>
+          <t>Bushekeri</t>
+        </is>
+      </c>
+      <c r="AC135" t="inlineStr">
+        <is>
+          <t>Ngoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44825.39226984954</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>44825.5246930787</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Margarita Fleming</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Habyarimana Fabien</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Nyirabantu Daphrose</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>789140698</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>-2.3040401</v>
+      </c>
+      <c r="M136" t="n">
+        <v>30.0647259</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1450</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V136" t="n">
+        <v>34.73</v>
+      </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>Bunyenga</t>
+        </is>
+      </c>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA136" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB136" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC136" t="inlineStr">
+        <is>
+          <t>Kigabiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44825.4288684375</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>44825.43230752315</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>John Vargas</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Habyarimana Theobard</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Yambabariye Helalie</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>782094046</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>-2.3036363</v>
+      </c>
+      <c r="M137" t="n">
+        <v>30.0627834</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1450</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>1</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>Charcoal</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>Bizenga</t>
+        </is>
+      </c>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA137" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>Kanjongo</t>
+        </is>
+      </c>
+      <c r="AC137" t="inlineStr">
+        <is>
+          <t>Kibogora</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44825.43443633102</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>44825.44230353009</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Shondra Parr</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Hategeka Bernard</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nyiranzeyimana  Veredianne </t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>782617616</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>-2.305333</v>
+      </c>
+      <c r="M138" t="n">
+        <v>30.0620748</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1456</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V138" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>Well done</t>
+        </is>
+      </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>Bweranyange</t>
+        </is>
+      </c>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB138" t="inlineStr">
+        <is>
+          <t>Shangi</t>
+        </is>
+      </c>
+      <c r="AC138" t="inlineStr">
+        <is>
+          <t>Mugera</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44825.34431097222</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>44825.36157322917</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Wayne Lawler</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Karekezi Zachar</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mukagakwaya Annonciathe </t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>785156901</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>-2.307021</v>
+      </c>
+      <c r="M139" t="n">
+        <v>30.0601274</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1445</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V139" t="n">
+        <v>5.865</v>
+      </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>Well done</t>
+        </is>
+      </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>Bweranyange</t>
+        </is>
+      </c>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>There is light an warmth</t>
+        </is>
+      </c>
+      <c r="AA139" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB139" t="inlineStr">
+        <is>
+          <t>Shangi</t>
+        </is>
+      </c>
+      <c r="AC139" t="inlineStr">
+        <is>
+          <t>Mugera</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44825.44778696759</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>44825.52398078704</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Irene Stevens</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Mugirwanake Andre</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Niyomukiza Joyeuse</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>788992533</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>-2.2849984</v>
+      </c>
+      <c r="M140" t="n">
+        <v>30.0269658</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1470</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V140" t="n">
+        <v>28</v>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>Bunyenga</t>
+        </is>
+      </c>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA140" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB140" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC140" t="inlineStr">
+        <is>
+          <t>Kigabiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44825.38143167824</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>44825.60942630787</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Juana Gallimore</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Muhundwangeyo Calixte Nason</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Tuyisenge Dorcas</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>791110785</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>-2.2895864</v>
+      </c>
+      <c r="M141" t="n">
+        <v>30.0282674</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1460</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V141" t="n">
+        <v>51.52</v>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>Buhembe</t>
+        </is>
+      </c>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>The weather is balanced</t>
+        </is>
+      </c>
+      <c r="AA141" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB141" t="inlineStr">
+        <is>
+          <t>Bushekeri</t>
+        </is>
+      </c>
+      <c r="AC141" t="inlineStr">
+        <is>
+          <t>Ngoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44824.87664015046</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>44825.451764375</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Petra Harris</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Mukamusoni Konsore</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Mukamusoni Konsore</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>726309754</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>-2.2943102</v>
+      </c>
+      <c r="M142" t="n">
+        <v>30.0314543</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1460</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V142" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>She prepared woods for using in 4 days only, the reason she used more woods it is because when she cook beans that reduce the remaining woods she told that tomorrow she collected new pile</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>Gakomeye</t>
+        </is>
+      </c>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AA142" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB142" t="inlineStr">
+        <is>
+          <t>Ruharambuga</t>
+        </is>
+      </c>
+      <c r="AC142" t="inlineStr">
+        <is>
+          <t>Wimana</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44825.48733336806</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>44825.49277716435</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>James Guerrero</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Mukankusi Verene</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uwase Deborah </t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>788871191</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>-2.3383611</v>
+      </c>
+      <c r="M143" t="n">
+        <v>30.0989523</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1469.4</v>
+      </c>
+      <c r="O143" t="n">
+        <v>1</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>Well done</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>Bweranyange</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA143" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>Shangi</t>
+        </is>
+      </c>
+      <c r="AC143" t="inlineStr">
+        <is>
+          <t>Mugera</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44825.33481862269</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>44825.69650106481</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Christopher Mcclure</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Mukanyonga Esperance</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Mukanyonga Esperance</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>787455555</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>-2.3372214</v>
+      </c>
+      <c r="M144" t="n">
+        <v>30.1002334</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1483.4</v>
+      </c>
+      <c r="O144" t="n">
+        <v>1</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>Wood Charcoal</t>
+        </is>
+      </c>
+      <c r="V144" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>usualy we are 7 but yesterday we had 1 guest, we were 8 at 12h we used woods in evening we used charcoal</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>Cyankuba</t>
+        </is>
+      </c>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA144" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>Karambi</t>
+        </is>
+      </c>
+      <c r="AC144" t="inlineStr">
+        <is>
+          <t>Kagarama</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44825.37968981481</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>44825.69781986111</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>John Childers</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Munyagishari Amoni</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Nyiramasuka Thabea</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>785562849</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>-2.3374205</v>
+      </c>
+      <c r="M145" t="n">
+        <v>30.0998728</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1497.8</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V145" t="n">
+        <v>31.284</v>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>Yesterday we cooked 1 time and we ate it again in evening</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>Cyankuba</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB145" t="inlineStr">
+        <is>
+          <t>Karambi</t>
+        </is>
+      </c>
+      <c r="AC145" t="inlineStr">
+        <is>
+          <t>Kagarama</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44825.3623864699</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>44825.69717280092</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Eric Rodriguez</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Ndahimana Innocent</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Nyiravuganeza Deborah</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>785028921</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>-2.3361595</v>
+      </c>
+      <c r="M146" t="n">
+        <v>30.1008385</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1484.5</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V146" t="n">
+        <v>18.706</v>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>Cyankuba</t>
+        </is>
+      </c>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA146" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>Karambi</t>
+        </is>
+      </c>
+      <c r="AC146" t="inlineStr">
+        <is>
+          <t>Kagarama</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44825.41713539352</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>44825.4223040162</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Irma Williams</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Ndayisabye Siel</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mukacanderi Pascasie </t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>783451279</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>-2.2948797</v>
+      </c>
+      <c r="M147" t="n">
+        <v>30.0328547</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1455</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V147" t="n">
+        <v>4.285</v>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>Well done</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>Bweranyange</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>There is light an warmth</t>
+        </is>
+      </c>
+      <c r="AA147" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>Shangi</t>
+        </is>
+      </c>
+      <c r="AC147" t="inlineStr">
+        <is>
+          <t>Mugera</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44825.42440174769</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44825.60883960648</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Andrew Conway</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Ngendabanyika Emmanuel</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Uwimana Beatrice</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>782864040</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>-2.3398938</v>
+      </c>
+      <c r="M148" t="n">
+        <v>30.0971062</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1481.6</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>1</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>Wood Charcoal</t>
+        </is>
+      </c>
+      <c r="V148" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>Buhembe</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>The weather is balanced</t>
+        </is>
+      </c>
+      <c r="AA148" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>Bushekeri</t>
+        </is>
+      </c>
+      <c r="AC148" t="inlineStr">
+        <is>
+          <t>Ngoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44824.87011207176</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>44825.44222465278</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Charles Battle</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Ngendabanyuka Innocent</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Ngendabanyuka Innocent</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>724792862</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>-2.3406142</v>
+      </c>
+      <c r="M149" t="n">
+        <v>30.0933001</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1486.1</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V149" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>She prepared woods for using in 4 days only</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>Gakomeye</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AA149" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>Ruharambuga</t>
+        </is>
+      </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>Wimana</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44825.47059060185</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>44825.48053703704</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Una Jarvis</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nisabwe Abiase </t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Nyirabizimana Onoline</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>789991899</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>-2.2948267</v>
+      </c>
+      <c r="M150" t="n">
+        <v>30.0293729</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1476</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V150" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>Bukiro</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA150" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC150" t="inlineStr">
+        <is>
+          <t>Muyange</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44825.44871990741</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>44825.45157871528</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Frances Buchanan</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Niyorembo Benjamin</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Uwamahoro  Vassiane</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>781602744</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>-2.2982221</v>
+      </c>
+      <c r="M151" t="n">
+        <v>30.0287416</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1497</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V151" t="n">
+        <v>45.63</v>
+      </c>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>Bizenga</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA151" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB151" t="inlineStr">
+        <is>
+          <t>Kanjongo</t>
+        </is>
+      </c>
+      <c r="AC151" t="inlineStr">
+        <is>
+          <t>Kibogora</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44825.34387467593</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>44825.52390065973</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Karlene Lewis</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Ntakirutimana Ferederic</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Ishimwe Sandrine</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>782322494</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>-2.2213822</v>
+      </c>
+      <c r="M152" t="n">
+        <v>30.2240457</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V152" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>Bunyenga</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA152" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB152" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC152" t="inlineStr">
+        <is>
+          <t>Kigabiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44825.34777487269</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>44825.35769912037</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Matthew Watson</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ntamarerero Phenias </t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Nyiraminani Tanasie</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>786437141</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>-2.2213822</v>
+      </c>
+      <c r="M153" t="n">
+        <v>30.2240457</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V153" t="n">
+        <v>30.902</v>
+      </c>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>Bukiro</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA153" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB153" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC153" t="inlineStr">
+        <is>
+          <t>Muyange</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44825.37170611111</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>44825.52445878472</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Dawn Benson</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Ntawumenyumunsi Theophile</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Nyirabaritonda Fortune</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>786245916</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>-2.2213822</v>
+      </c>
+      <c r="M154" t="n">
+        <v>30.2240457</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V154" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>Bunyenga</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA154" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB154" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC154" t="inlineStr">
+        <is>
+          <t>Kigabiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44825.38473099537</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>44825.39930320602</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Andy Moore</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ntuyahaga Gerald </t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dusabe Marie Vestine </t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>785385977</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>-2.2047134</v>
+      </c>
+      <c r="M155" t="n">
+        <v>30.2031256</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V155" t="n">
+        <v>46.134</v>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>Bukiro</t>
+        </is>
+      </c>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA155" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC155" t="inlineStr">
+        <is>
+          <t>Muyange</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44824.89211842592</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44825.5156265625</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Margaret Finney</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ntuyemubanzi Damaceni </t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Nyirahakizimana Odetta</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>790192420</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>-2.2009729</v>
+      </c>
+      <c r="M156" t="n">
+        <v>30.2027649</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V156" t="n">
+        <v>75.41</v>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>Has store of wood pile</t>
+        </is>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>Gakomeye</t>
+        </is>
+      </c>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AA156" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB156" t="inlineStr">
+        <is>
+          <t>Ruharambuga</t>
+        </is>
+      </c>
+      <c r="AC156" t="inlineStr">
+        <is>
+          <t>Wimana</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44825.36517864584</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>44825.37625813657</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Donna Rodriguez</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Nyihanze Amaso Asiel</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nyiransengiyumva Anonciata </t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>783554480</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>-2.215685</v>
+      </c>
+      <c r="M157" t="n">
+        <v>30.2391926</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V157" t="n">
+        <v>35.613</v>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>Bukiro</t>
+        </is>
+      </c>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA157" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB157" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC157" t="inlineStr">
+        <is>
+          <t>Muyange</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44825.39216780093</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>44825.69899184028</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Irma Shaffner</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Nyiramuruta Elina</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Nyiramuruta Elina</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>780608847</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>-2.3560015</v>
+      </c>
+      <c r="M158" t="n">
+        <v>30.0850646</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1465.4</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V158" t="n">
+        <v>48.91</v>
+      </c>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Usualy we are 3 but we feeded 2 children who visited us </t>
+        </is>
+      </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>Cyankuba</t>
+        </is>
+      </c>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA158" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB158" t="inlineStr">
+        <is>
+          <t>Karambi</t>
+        </is>
+      </c>
+      <c r="AC158" t="inlineStr">
+        <is>
+          <t>Kagarama</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44824.84193495371</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>44825.38269766204</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Dorothy Sterling</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Nyirandorimana Beretirida</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Nyirandorimana Beretirida</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>722655710</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>-2.3570234</v>
+      </c>
+      <c r="M159" t="n">
+        <v>30.0840894</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1460.8</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V159" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="W159" t="inlineStr">
+        <is>
+          <t>She can only afford woods for using per day because of the harvest of tea she did as work, the reason grams increased it's because she got woods pile</t>
+        </is>
+      </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>Gakomeye</t>
+        </is>
+      </c>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AA159" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB159" t="inlineStr">
+        <is>
+          <t>Ruharambuga</t>
+        </is>
+      </c>
+      <c r="AC159" t="inlineStr">
+        <is>
+          <t>Wimana</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44825.41200328703</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>44825.41792711805</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Martha Edwards</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Nyirishema Augustin</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Nyiransabimana Marie Therese</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>782298382</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>-2.35536</v>
+      </c>
+      <c r="M160" t="n">
+        <v>30.0803683</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1442.6</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V160" t="n">
+        <v>7.665</v>
+      </c>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>Bizenga</t>
+        </is>
+      </c>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA160" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB160" t="inlineStr">
+        <is>
+          <t>Kanjongo</t>
+        </is>
+      </c>
+      <c r="AC160" t="inlineStr">
+        <is>
+          <t>Kibogora</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44825.46912078703</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>44825.47308481482</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Julie Crank</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nzamurambaho Vincent </t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niyogushimwa </t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>785552148</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>-2.3631329</v>
+      </c>
+      <c r="M161" t="n">
+        <v>30.0820047</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1442.4</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V161" t="n">
+        <v>9.455</v>
+      </c>
+      <c r="W161" t="inlineStr">
+        <is>
+          <t>Well done</t>
+        </is>
+      </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>Bweranyange</t>
+        </is>
+      </c>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA161" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB161" t="inlineStr">
+        <is>
+          <t>Shangi</t>
+        </is>
+      </c>
+      <c r="AC161" t="inlineStr">
+        <is>
+          <t>Mugera</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44825.46687054398</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>44825.46927679399</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Della Rios</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Ruberizesa Dinatien</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Mukarukaka Thanasie</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>789560099</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>-2.36468</v>
+      </c>
+      <c r="M162" t="n">
+        <v>30.0767517</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1392.1</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>1</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>Charcoal</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>Bizenga</t>
+        </is>
+      </c>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA162" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB162" t="inlineStr">
+        <is>
+          <t>Kanjongo</t>
+        </is>
+      </c>
+      <c r="AC162" t="inlineStr">
+        <is>
+          <t>Kibogora</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44825.35788519676</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>44825.60919444444</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Micheal Levy</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Usabamungu Yohana</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Mukasimoni Florida</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>787884217</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>-2.359115</v>
+      </c>
+      <c r="M163" t="n">
+        <v>30.084809</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1461.7</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W163" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>Buhembe</t>
+        </is>
+      </c>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA163" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB163" t="inlineStr">
+        <is>
+          <t>Bushekeri</t>
+        </is>
+      </c>
+      <c r="AC163" t="inlineStr">
+        <is>
+          <t>Ngoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44825.41593232639</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>44825.43884862268</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Marcella Rodriguez</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Shikama Aloys</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nyirampakaniye Seraphine </t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>789980637</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>-2.2833448</v>
+      </c>
+      <c r="M164" t="n">
+        <v>30.0122671</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1472.9</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V164" t="n">
+        <v>43.617</v>
+      </c>
+      <c r="W164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>Bukiro</t>
+        </is>
+      </c>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA164" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB164" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC164" t="inlineStr">
+        <is>
+          <t>Muyange</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44825.44837377315</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>44825.46392075231</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Leonard Garrison</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simpunga Feleciane </t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Mukanzabaza Fausta</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>784778421</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>-2.2846293</v>
+      </c>
+      <c r="M165" t="n">
+        <v>30.0127301</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1459.7</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V165" t="n">
+        <v>50.187</v>
+      </c>
+      <c r="W165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>Bukiro</t>
+        </is>
+      </c>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr">
+        <is>
+          <t>The weather is balanced</t>
+        </is>
+      </c>
+      <c r="AA165" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB165" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC165" t="inlineStr">
+        <is>
+          <t>Muyange</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44825.4481828588</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>44825.60984329861</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Mark Cerda</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Sobugingo Alphonse</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Niyonagize Marie Joyeuse</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>789694263</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>-2.2820952</v>
+      </c>
+      <c r="M166" t="n">
+        <v>30.0131902</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1483.4</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V166" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>Buhembe</t>
+        </is>
+      </c>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA166" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB166" t="inlineStr">
+        <is>
+          <t>Bushekeri</t>
+        </is>
+      </c>
+      <c r="AC166" t="inlineStr">
+        <is>
+          <t>Ngoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44825.41693322916</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>44825.52383612269</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Mario Okane</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Ukwimanishatse Raban</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Abayisenga Clementine</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>781098027</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>-2.2833976</v>
+      </c>
+      <c r="M167" t="n">
+        <v>30.0142271</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1491.1</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V167" t="n">
+        <v>29</v>
+      </c>
+      <c r="W167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>Bunyenga</t>
+        </is>
+      </c>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr">
+        <is>
+          <t>The weather is balanced</t>
+        </is>
+      </c>
+      <c r="AA167" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB167" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC167" t="inlineStr">
+        <is>
+          <t>Kigabiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44825.43575094907</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>44825.52458050926</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Randal Hammock</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Uwihoreye Ferederic</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Nyirabwimana Josiane</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>781857775</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>-2.2842625</v>
+      </c>
+      <c r="M168" t="n">
+        <v>30.0152738</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1504.9</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V168" t="n">
+        <v>33</v>
+      </c>
+      <c r="W168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>Bunyenga</t>
+        </is>
+      </c>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="AA168" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB168" t="inlineStr">
+        <is>
+          <t>Nyabitekeri</t>
+        </is>
+      </c>
+      <c r="AC168" t="inlineStr">
+        <is>
+          <t>Kigabiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44825.37481104166</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>44825.3890300463</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Lloyd Warner</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uwimana Jonathan </t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nyiraneza Foïbi </t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>791571091</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>-2.2820591</v>
+      </c>
+      <c r="M169" t="n">
+        <v>30.0122256</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1477.1</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="V169" t="n">
+        <v>2.815</v>
+      </c>
+      <c r="W169" t="inlineStr">
+        <is>
+          <t>Well done</t>
+        </is>
+      </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>Bweranyange</t>
+        </is>
+      </c>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>There is light an warmth</t>
+        </is>
+      </c>
+      <c r="AA169" t="inlineStr">
+        <is>
+          <t>Nyamasheke</t>
+        </is>
+      </c>
+      <c r="AB169" t="inlineStr">
+        <is>
+          <t>Shangi</t>
+        </is>
+      </c>
+      <c r="AC169" t="inlineStr">
         <is>
           <t>Mugera</t>
         </is>
